--- a/testData/WebForm/WF_RRUserY_NoCondition_Test.xlsx
+++ b/testData/WebForm/WF_RRUserY_NoCondition_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -123,9 +123,6 @@
     <t>WebFormName</t>
   </si>
   <si>
-    <t>wnTestAutomation</t>
-  </si>
-  <si>
     <t>Davis</t>
   </si>
   <si>
@@ -216,19 +213,40 @@
     <t>9840064331</t>
   </si>
   <si>
+    <t>9840069704</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>WF_RRUserY_NoCondition</t>
+  </si>
+  <si>
+    <t>WebFormId</t>
+  </si>
+  <si>
+    <t>9840097758</t>
+  </si>
+  <si>
+    <t>9840011348</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9840053686</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>9840035784</t>
+    <t>9840010502</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>9840069704</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>9840047945</t>
   </si>
 </sst>
 </file>
@@ -575,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,14 +625,16 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="27" max="28" customWidth="true" width="17.81640625"/>
+    <col min="27" max="27" customWidth="true" width="17.81640625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.26953125"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
     <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -700,19 +720,22 @@
         <v>33</v>
       </c>
       <c r="AC1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AG1" t="s" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -720,7 +743,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>13</v>
@@ -729,13 +752,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>10</v>
@@ -747,64 +770,67 @@
         <v>14</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>18</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>18</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s" s="0">
         <v>18</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s" s="0">
         <v>18</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="s" s="0">
         <v>32</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>57</v>
+      <c r="AE2" s="4">
+        <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -812,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>13</v>
@@ -827,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>10</v>
@@ -839,19 +865,20 @@
         <v>14</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE3" s="4"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -859,7 +886,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>13</v>
@@ -868,13 +895,13 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>10</v>
@@ -886,19 +913,20 @@
         <v>14</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="AE4" s="4"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -906,7 +934,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>13</v>
@@ -921,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>10</v>
@@ -933,19 +961,20 @@
         <v>14</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -953,7 +982,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>13</v>
@@ -968,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>10</v>
@@ -980,19 +1009,20 @@
         <v>14</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AE6" s="4"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1000,7 +1030,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>13</v>
@@ -1009,13 +1039,13 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>10</v>
@@ -1027,19 +1057,20 @@
         <v>14</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="AE7" s="4"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1047,7 +1078,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>13</v>
@@ -1056,13 +1087,13 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>10</v>
@@ -1074,19 +1105,20 @@
         <v>14</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AC8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE8" s="4"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1094,7 +1126,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>13</v>
@@ -1109,7 +1141,7 @@
         <v>12</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>10</v>
@@ -1121,19 +1153,20 @@
         <v>14</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>13</v>
@@ -1156,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>10</v>
@@ -1168,17 +1201,18 @@
         <v>14</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD10" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="AE10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
